--- a/APIdoc/api.xlsx
+++ b/APIdoc/api.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9C0B0B-B36B-43D1-8866-BC33475BD789}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46565DF6-95B3-4AE0-B8D3-DAA68C3594EA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="2115" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4230" yWindow="7455" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>methodId</t>
   </si>
@@ -43,33 +43,12 @@
     <t>searchAnimalListByString</t>
   </si>
   <si>
-    <t>require data</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>arraylist:animal name</t>
-  </si>
-  <si>
     <t>example post data</t>
   </si>
   <si>
-    <t>[kangaroo,koala]</t>
-  </si>
-  <si>
-    <t>string: class name</t>
-  </si>
-  <si>
-    <t>"mammal"</t>
-  </si>
-  <si>
-    <t>string: query string</t>
-  </si>
-  <si>
-    <t>"oal"</t>
-  </si>
-  <si>
     <t>response data</t>
   </si>
   <si>
@@ -79,10 +58,25 @@
     <t>arraylist: points of lat,long</t>
   </si>
   <si>
-    <t>arraylist:all animals name</t>
-  </si>
-  <si>
-    <t>arraylist:all animals name which meets the query</t>
+    <t>calculateAroundAnimals</t>
+  </si>
+  <si>
+    <t>["animals":["kangaroo","koala"]]</t>
+  </si>
+  <si>
+    <t>["className":"mammal"]</t>
+  </si>
+  <si>
+    <t>["query":"oal"]</t>
+  </si>
+  <si>
+    <t>["lat":"-37.57","lon":"149.837"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arraylist:animals name </t>
+  </si>
+  <si>
+    <t>arraylist:animals name</t>
   </si>
 </sst>
 </file>
@@ -403,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -413,12 +407,11 @@
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="39.42578125" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" customWidth="1"/>
-    <col min="5" max="5" width="45.85546875" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+    <col min="4" max="4" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,16 +419,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -443,13 +433,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -457,16 +447,13 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -474,13 +461,13 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -488,16 +475,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -505,13 +489,24 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/APIdoc/api.xlsx
+++ b/APIdoc/api.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46565DF6-95B3-4AE0-B8D3-DAA68C3594EA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E573649-C4EE-45B2-BAEC-039250B542AE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="7455" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5820" yWindow="2040" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>methodId</t>
   </si>
@@ -58,9 +58,6 @@
     <t>arraylist: points of lat,long</t>
   </si>
   <si>
-    <t>calculateAroundAnimals</t>
-  </si>
-  <si>
     <t>["animals":["kangaroo","koala"]]</t>
   </si>
   <si>
@@ -77,6 +74,15 @@
   </si>
   <si>
     <t>arraylist:animals name</t>
+  </si>
+  <si>
+    <t>getAroundAnimalLocationByName</t>
+  </si>
+  <si>
+    <t>getAroundAnimalsByLatLon</t>
+  </si>
+  <si>
+    <t>["animal":"Australian Funnel-Web Spider","lat":"-37.57","lon":"149.837"]</t>
   </si>
 </sst>
 </file>
@@ -397,17 +403,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D11" activeCellId="1" sqref="D8 D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="39.42578125" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+    <col min="3" max="3" width="70.85546875" customWidth="1"/>
     <col min="4" max="4" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -447,7 +453,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -464,7 +470,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -475,10 +481,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -489,10 +495,10 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -500,13 +506,27 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
-        <v>17</v>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/APIdoc/api.xlsx
+++ b/APIdoc/api.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E573649-C4EE-45B2-BAEC-039250B542AE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E565A999-C1DA-4DE9-A589-F6938DEF739E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5820" yWindow="2040" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,7 +406,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" activeCellId="1" sqref="D8 D11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/APIdoc/api.xlsx
+++ b/APIdoc/api.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E565A999-C1DA-4DE9-A589-F6938DEF739E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B774054-D718-4A68-86A3-91DF60205E6E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="2040" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,9 +55,6 @@
     <t>test data</t>
   </si>
   <si>
-    <t>arraylist: points of lat,long</t>
-  </si>
-  <si>
     <t>["animals":["kangaroo","koala"]]</t>
   </si>
   <si>
@@ -70,12 +67,6 @@
     <t>["lat":"-37.57","lon":"149.837"]</t>
   </si>
   <si>
-    <t xml:space="preserve">arraylist:animals name </t>
-  </si>
-  <si>
-    <t>arraylist:animals name</t>
-  </si>
-  <si>
     <t>getAroundAnimalLocationByName</t>
   </si>
   <si>
@@ -83,6 +74,15 @@
   </si>
   <si>
     <t>["animal":"Australian Funnel-Web Spider","lat":"-37.57","lon":"149.837"]</t>
+  </si>
+  <si>
+    <t>response:(jsonstring)-&gt;arraylist: points of lat,long</t>
+  </si>
+  <si>
+    <t>response:(jsonstring)-&gt;arraylist: points of lat,long\\miss:(jsonstring)-&gt;arraylist: animals name</t>
+  </si>
+  <si>
+    <t>response:(jsonstring)-&gt;arraylist: animal name</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="39.42578125" customWidth="1"/>
     <col min="3" max="3" width="70.85546875" customWidth="1"/>
-    <col min="4" max="4" width="45.85546875" customWidth="1"/>
+    <col min="4" max="4" width="86.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -453,10 +453,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -470,7 +470,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -481,10 +481,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -495,10 +495,10 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -506,13 +506,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -520,13 +520,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
         <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/APIdoc/api.xlsx
+++ b/APIdoc/api.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B774054-D718-4A68-86A3-91DF60205E6E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE97FCE-9ACB-4659-B300-FE673AC71A12}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>methodId</t>
   </si>
@@ -83,6 +83,33 @@
   </si>
   <si>
     <t>response:(jsonstring)-&gt;arraylist: animal name</t>
+  </si>
+  <si>
+    <t>{response=[[-34.2277,141.7673],[-34.1735,142.1429],[-37.4694,145.3926]], miss=["dingo234"]}</t>
+  </si>
+  <si>
+    <t>{response=["Australian Funnel-Web Spider","Australian Magpie","Dingo","Dusky Antechinus","Eastern Quoll","Emu","Galah","Gippsland Water Dragon","Grey-headed Flying-fox","Koala","Little Penguin","Platypus","Red Fox","Sand Goanna","Southern Brown Bandicoot","Spotted-tailed Quoll","Sugar Glider","Sulphur-crested Cockatoo"]}</t>
+  </si>
+  <si>
+    <t>{response=[{"animalsId":1,"name":"koala","className":"mammal"},{"animalsId":2,"name":"red kangaroo","className":"mammal"},{"animalsId":3,"name":"dingo","className":"mammal"},{"animalsId":4,"name":"emu","className":"birds"}]}</t>
+  </si>
+  <si>
+    <t>{response=[{"animalsId":1,"name":"koala","className":"mammal"},{"animalsId":2,"name":"red kangaroo","className":"mammal"},{"animalsId":3,"name":"dingo","className":"mammal"}]}</t>
+  </si>
+  <si>
+    <t>{response=[[-34.2277,141.7673],[-34.1735,142.1429],[-37.4694,145.3926]]}</t>
+  </si>
+  <si>
+    <t>{response=null} |||{response=Animal Sound/red fox.wav}</t>
+  </si>
+  <si>
+    <t>getAnimalVoiceUrlByName</t>
+  </si>
+  <si>
+    <t>["animal":"koala"]</t>
+  </si>
+  <si>
+    <t>response:(string)-&gt;voice file url</t>
   </si>
 </sst>
 </file>
@@ -98,12 +125,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -118,11 +151,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -403,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,9 +452,10 @@
     <col min="2" max="2" width="39.42578125" customWidth="1"/>
     <col min="3" max="3" width="70.85546875" customWidth="1"/>
     <col min="4" max="4" width="86.28515625" customWidth="1"/>
+    <col min="5" max="5" width="242.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,7 +469,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -445,7 +483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -458,8 +496,11 @@
       <c r="D3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -472,8 +513,11 @@
       <c r="D4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -486,22 +530,25 @@
       <c r="D5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -514,8 +561,11 @@
       <c r="D7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -527,6 +577,26 @@
       </c>
       <c r="D8" t="s">
         <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/APIdoc/api.xlsx
+++ b/APIdoc/api.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE97FCE-9ACB-4659-B300-FE673AC71A12}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1E987C-71F7-40C6-A9C5-178CE8B502F6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3015" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>methodId</t>
   </si>
@@ -110,13 +110,28 @@
   </si>
   <si>
     <t>response:(string)-&gt;voice file url</t>
+  </si>
+  <si>
+    <t>http://localhost:8081/getVoice?id=Red%20Fox</t>
+  </si>
+  <si>
+    <t>GET METHOD</t>
+  </si>
+  <si>
+    <t>example url</t>
+  </si>
+  <si>
+    <t>response</t>
+  </si>
+  <si>
+    <t>MP3/wav</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,8 +139,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,6 +158,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -148,10 +177,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -160,9 +190,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -440,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,24 +618,49 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="5" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C18" r:id="rId1" xr:uid="{4C9BB673-564C-43BC-9E40-A5CDAF62941C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/APIdoc/api.xlsx
+++ b/APIdoc/api.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1E987C-71F7-40C6-A9C5-178CE8B502F6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3015" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20385" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>methodId</t>
   </si>
@@ -28,100 +22,109 @@
     <t>methodName</t>
   </si>
   <si>
+    <t>example post data</t>
+  </si>
+  <si>
+    <t>response data</t>
+  </si>
+  <si>
     <t>test1</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>test data</t>
+  </si>
+  <si>
     <t>filterSpeciLocation</t>
   </si>
   <si>
+    <t>["animals":["kangaroo","koala"]]</t>
+  </si>
+  <si>
+    <t>response:(jsonstring)-&gt;arraylist: points of lat,long\\miss:(jsonstring)-&gt;arraylist: animals name</t>
+  </si>
+  <si>
+    <t>{response=[[-34.2277,141.7673],[-34.1735,142.1429],[-37.4694,145.3926]], miss=["dingo234"]}</t>
+  </si>
+  <si>
     <t>getAllAnimalsName</t>
   </si>
   <si>
+    <t>response:(jsonstring)-&gt;arraylist: animal name</t>
+  </si>
+  <si>
+    <t>{response=[{"animalsId":1,"name":"koala","className":"mammal"},{"animalsId":2,"name":"red kangaroo","className":"mammal"},{"animalsId":3,"name":"dingo","className":"mammal"},{"animalsId":4,"name":"emu","className":"birds"}]}</t>
+  </si>
+  <si>
     <t>getAnimalsNameByClass</t>
   </si>
   <si>
+    <t>["className":"mammal"]</t>
+  </si>
+  <si>
+    <t>{response=[{"animalsId":1,"name":"koala","className":"mammal"},{"animalsId":2,"name":"red kangaroo","className":"mammal"},{"animalsId":3,"name":"dingo","className":"mammal"}]}</t>
+  </si>
+  <si>
     <t>searchAnimalListByString</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>example post data</t>
-  </si>
-  <si>
-    <t>response data</t>
-  </si>
-  <si>
-    <t>test data</t>
-  </si>
-  <si>
-    <t>["animals":["kangaroo","koala"]]</t>
-  </si>
-  <si>
-    <t>["className":"mammal"]</t>
-  </si>
-  <si>
     <t>["query":"oal"]</t>
   </si>
   <si>
+    <t>getAroundAnimalsByLatLon</t>
+  </si>
+  <si>
     <t>["lat":"-37.57","lon":"149.837"]</t>
   </si>
   <si>
+    <t>{response=["Australian Funnel-Web Spider","Australian Magpie","Dingo","Dusky Antechinus","Eastern Quoll","Emu","Galah","Gippsland Water Dragon","Grey-headed Flying-fox","Koala","Little Penguin","Platypus","Red Fox","Sand Goanna","Southern Brown Bandicoot","Spotted-tailed Quoll","Sugar Glider","Sulphur-crested Cockatoo"]}</t>
+  </si>
+  <si>
     <t>getAroundAnimalLocationByName</t>
   </si>
   <si>
-    <t>getAroundAnimalsByLatLon</t>
-  </si>
-  <si>
     <t>["animal":"Australian Funnel-Web Spider","lat":"-37.57","lon":"149.837"]</t>
   </si>
   <si>
     <t>response:(jsonstring)-&gt;arraylist: points of lat,long</t>
   </si>
   <si>
-    <t>response:(jsonstring)-&gt;arraylist: points of lat,long\\miss:(jsonstring)-&gt;arraylist: animals name</t>
-  </si>
-  <si>
-    <t>response:(jsonstring)-&gt;arraylist: animal name</t>
-  </si>
-  <si>
-    <t>{response=[[-34.2277,141.7673],[-34.1735,142.1429],[-37.4694,145.3926]], miss=["dingo234"]}</t>
-  </si>
-  <si>
-    <t>{response=["Australian Funnel-Web Spider","Australian Magpie","Dingo","Dusky Antechinus","Eastern Quoll","Emu","Galah","Gippsland Water Dragon","Grey-headed Flying-fox","Koala","Little Penguin","Platypus","Red Fox","Sand Goanna","Southern Brown Bandicoot","Spotted-tailed Quoll","Sugar Glider","Sulphur-crested Cockatoo"]}</t>
-  </si>
-  <si>
-    <t>{response=[{"animalsId":1,"name":"koala","className":"mammal"},{"animalsId":2,"name":"red kangaroo","className":"mammal"},{"animalsId":3,"name":"dingo","className":"mammal"},{"animalsId":4,"name":"emu","className":"birds"}]}</t>
-  </si>
-  <si>
-    <t>{response=[{"animalsId":1,"name":"koala","className":"mammal"},{"animalsId":2,"name":"red kangaroo","className":"mammal"},{"animalsId":3,"name":"dingo","className":"mammal"}]}</t>
-  </si>
-  <si>
     <t>{response=[[-34.2277,141.7673],[-34.1735,142.1429],[-37.4694,145.3926]]}</t>
   </si>
   <si>
+    <t>getAnimalVoiceUrlByName</t>
+  </si>
+  <si>
+    <t>["animal":"koala"]</t>
+  </si>
+  <si>
+    <t>response:(string)-&gt;voice file url</t>
+  </si>
+  <si>
     <t>{response=null} |||{response=Animal Sound/red fox.wav}</t>
   </si>
   <si>
-    <t>getAnimalVoiceUrlByName</t>
-  </si>
-  <si>
-    <t>["animal":"koala"]</t>
-  </si>
-  <si>
-    <t>response:(string)-&gt;voice file url</t>
+    <t>getAnimalFactByName</t>
+  </si>
+  <si>
+    <t>response:(jsonstring)-&gt;arraylist: animal name,facts,id</t>
+  </si>
+  <si>
+    <t>{response=[{"animalsId":1,"name":"Koala","facts":"-fact1\\n-fact2\\n2-fact3"}]}</t>
+  </si>
+  <si>
+    <t>GET METHOD</t>
+  </si>
+  <si>
+    <t>example url</t>
+  </si>
+  <si>
+    <t>response</t>
   </si>
   <si>
     <t>http://localhost:8081/getVoice?id=Red%20Fox</t>
-  </si>
-  <si>
-    <t>GET METHOD</t>
-  </si>
-  <si>
-    <t>example url</t>
-  </si>
-  <si>
-    <t>response</t>
   </si>
   <si>
     <t>MP3/wav</t>
@@ -130,25 +133,174 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,12 +315,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.34998626667073579"/>
+        <fgColor theme="1" tint="0.349986266670736"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -176,38 +514,323 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -256,7 +879,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -291,7 +914,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -465,202 +1088,212 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" customWidth="1"/>
-    <col min="3" max="3" width="70.85546875" customWidth="1"/>
-    <col min="4" max="4" width="86.28515625" customWidth="1"/>
-    <col min="5" max="5" width="242.7109375" customWidth="1"/>
+    <col min="2" max="2" width="39.425" customWidth="1"/>
+    <col min="3" max="3" width="70.8583333333333" customWidth="1"/>
+    <col min="4" max="4" width="86.2833333333333" customWidth="1"/>
+    <col min="5" max="5" width="242.708333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:4">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D8" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+    <row r="9" s="2" customFormat="1" spans="1:5">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="5" t="s">
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>30</v>
+      <c r="C18" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C18" r:id="rId1" xr:uid="{4C9BB673-564C-43BC-9E40-A5CDAF62941C}"/>
+    <hyperlink ref="C18" r:id="rId1" display="http://localhost:8081/getVoice?id=Red%20Fox"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/APIdoc/api.xlsx
+++ b/APIdoc/api.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1E987C-71F7-40C6-A9C5-178CE8B502F6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3A54F5-E15F-47AD-B7B7-6756B58C74D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3015" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="3135" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>methodId</t>
   </si>
@@ -125,6 +125,15 @@
   </si>
   <si>
     <t>MP3/wav</t>
+  </si>
+  <si>
+    <t>getRandomQuizOfSelectSound</t>
+  </si>
+  <si>
+    <t>response:(jsonstring)-&gt;arraylist: animal name\\answer:String-&gt;animal name</t>
+  </si>
+  <si>
+    <t>{answer=Tawny Frogmouth, response=["White\u0027s Skink","Red Wattlebird","Tawny Frogmouth"]}</t>
   </si>
 </sst>
 </file>
@@ -478,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,6 +644,23 @@
         <v>26</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>

--- a/APIdoc/api.xlsx
+++ b/APIdoc/api.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3A54F5-E15F-47AD-B7B7-6756B58C74D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8285568-2898-4C36-AD28-08948FF8D90C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="3135" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5295" yWindow="2475" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>methodId</t>
   </si>
@@ -134,6 +134,27 @@
   </si>
   <si>
     <t>{answer=Tawny Frogmouth, response=["White\u0027s Skink","Red Wattlebird","Tawny Frogmouth"]}</t>
+  </si>
+  <si>
+    <t>getReport</t>
+  </si>
+  <si>
+    <t>http://localhost:8081/getReport?id=hello_world</t>
+  </si>
+  <si>
+    <t>pdf/ can be viewed via browser</t>
+  </si>
+  <si>
+    <t>generateReportPdf</t>
+  </si>
+  <si>
+    <t>["animal":"kangaroo","className":"mammalia","lat":"-37.57","lon":"149.837","userName":"Vincent","email":"yuantianyi@hotmail.com"]</t>
+  </si>
+  <si>
+    <t>response:(string)-&gt;pdf file name</t>
+  </si>
+  <si>
+    <t>{response=hello_world}</t>
   </si>
 </sst>
 </file>
@@ -485,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -495,7 +516,7 @@
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="39.42578125" customWidth="1"/>
-    <col min="3" max="3" width="70.85546875" customWidth="1"/>
+    <col min="3" max="3" width="134.28515625" customWidth="1"/>
     <col min="4" max="4" width="86.28515625" customWidth="1"/>
     <col min="5" max="5" width="242.7109375" customWidth="1"/>
   </cols>
@@ -661,6 +682,23 @@
         <v>37</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
@@ -683,9 +721,21 @@
         <v>34</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C18" r:id="rId1" xr:uid="{4C9BB673-564C-43BC-9E40-A5CDAF62941C}"/>
+    <hyperlink ref="C19" r:id="rId2" xr:uid="{B0785A36-9B98-45B7-86E5-D8017F0AB1A3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/APIdoc/api.xlsx
+++ b/APIdoc/api.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8285568-2898-4C36-AD28-08948FF8D90C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470CFE9C-54EC-454D-821D-D7C780F28468}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5295" yWindow="2475" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,13 +148,13 @@
     <t>generateReportPdf</t>
   </si>
   <si>
-    <t>["animal":"kangaroo","className":"mammalia","lat":"-37.57","lon":"149.837","userName":"Vincent","email":"yuantianyi@hotmail.com"]</t>
-  </si>
-  <si>
     <t>response:(string)-&gt;pdf file name</t>
   </si>
   <si>
     <t>{response=hello_world}</t>
+  </si>
+  <si>
+    <t>["animal":"kangaroo","className":"mammalia","lat":"-37.57","lon":"149.837","userName":"Vincent","email":"yuantianyi@hotmail.com","img":"(base64)"]</t>
   </si>
 </sst>
 </file>
@@ -509,7 +509,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,13 +690,13 @@
         <v>41</v>
       </c>
       <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
         <v>42</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>43</v>
-      </c>
-      <c r="E11" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">

--- a/APIdoc/api.xlsx
+++ b/APIdoc/api.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470CFE9C-54EC-454D-821D-D7C780F28468}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25ADF335-0D37-413C-8574-293CB9F545D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5295" yWindow="2475" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5910" yWindow="2190" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>methodId</t>
   </si>
@@ -139,9 +139,6 @@
     <t>getReport</t>
   </si>
   <si>
-    <t>http://localhost:8081/getReport?id=hello_world</t>
-  </si>
-  <si>
     <t>pdf/ can be viewed via browser</t>
   </si>
   <si>
@@ -151,10 +148,25 @@
     <t>response:(string)-&gt;pdf file name</t>
   </si>
   <si>
-    <t>{response=hello_world}</t>
-  </si>
-  <si>
-    <t>["animal":"kangaroo","className":"mammalia","lat":"-37.57","lon":"149.837","userName":"Vincent","email":"yuantianyi@hotmail.com","img":"(base64)"]</t>
+    <t>sendEmailOfReport</t>
+  </si>
+  <si>
+    <t>["file":"1556377179822UavomM9S","ccAddress":"769991835@qq.com"]</t>
+  </si>
+  <si>
+    <t>response:(string)-&gt;email send status(both to government and to reporter )</t>
+  </si>
+  <si>
+    <t>{response=government status:202|cc status:202}</t>
+  </si>
+  <si>
+    <t>["animal":"kangaroo","className":"mammalia","lat":"-37.57","lon":"149.837","userName":"Vincent","email":"yuantianyi@hotmail.com","msg":"this is a dog","img":"(base64)"]</t>
+  </si>
+  <si>
+    <t>{response=1556379477308KKzGZ0Nk}</t>
+  </si>
+  <si>
+    <t>http://localhost:8081/getReport?id=1556379477308KKzGZ0Nk</t>
   </si>
 </sst>
 </file>
@@ -509,14 +521,14 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="39.42578125" customWidth="1"/>
-    <col min="3" max="3" width="134.28515625" customWidth="1"/>
+    <col min="3" max="3" width="139.5703125" customWidth="1"/>
     <col min="4" max="4" width="86.28515625" customWidth="1"/>
     <col min="5" max="5" width="242.7109375" customWidth="1"/>
   </cols>
@@ -687,16 +699,33 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
         <v>41</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
         <v>44</v>
       </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>43</v>
+      <c r="E12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -726,10 +755,10 @@
         <v>38</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
         <v>39</v>
-      </c>
-      <c r="D19" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/APIdoc/api.xlsx
+++ b/APIdoc/api.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25ADF335-0D37-413C-8574-293CB9F545D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E975B83-11F1-42D9-AFC4-B7B740F72D50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5910" yWindow="2190" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29130" yWindow="2610" windowWidth="24150" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -521,14 +521,14 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="39.42578125" customWidth="1"/>
-    <col min="3" max="3" width="139.5703125" customWidth="1"/>
+    <col min="3" max="3" width="160" customWidth="1"/>
     <col min="4" max="4" width="86.28515625" customWidth="1"/>
     <col min="5" max="5" width="242.7109375" customWidth="1"/>
   </cols>

--- a/APIdoc/api.xlsx
+++ b/APIdoc/api.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E975B83-11F1-42D9-AFC4-B7B740F72D50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527E068E-5B18-445C-BDC2-40681565F8B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29130" yWindow="2610" windowWidth="24150" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,9 +76,6 @@
     <t>["animal":"Australian Funnel-Web Spider","lat":"-37.57","lon":"149.837"]</t>
   </si>
   <si>
-    <t>response:(jsonstring)-&gt;arraylist: points of lat,long</t>
-  </si>
-  <si>
     <t>response:(jsonstring)-&gt;arraylist: points of lat,long\\miss:(jsonstring)-&gt;arraylist: animals name</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>{response=[{"animalsId":1,"name":"koala","className":"mammal"},{"animalsId":2,"name":"red kangaroo","className":"mammal"},{"animalsId":3,"name":"dingo","className":"mammal"}]}</t>
   </si>
   <si>
-    <t>{response=[[-34.2277,141.7673],[-34.1735,142.1429],[-37.4694,145.3926]]}</t>
-  </si>
-  <si>
     <t>{response=null} |||{response=Animal Sound/red fox.wav}</t>
   </si>
   <si>
@@ -145,9 +139,6 @@
     <t>generateReportPdf</t>
   </si>
   <si>
-    <t>response:(string)-&gt;pdf file name</t>
-  </si>
-  <si>
     <t>sendEmailOfReport</t>
   </si>
   <si>
@@ -163,10 +154,19 @@
     <t>["animal":"kangaroo","className":"mammalia","lat":"-37.57","lon":"149.837","userName":"Vincent","email":"yuantianyi@hotmail.com","msg":"this is a dog","img":"(base64)"]</t>
   </si>
   <si>
-    <t>{response=1556379477308KKzGZ0Nk}</t>
-  </si>
-  <si>
     <t>http://localhost:8081/getReport?id=1556379477308KKzGZ0Nk</t>
+  </si>
+  <si>
+    <t>{response=[[-34.2277,141.7673],[-34.1735,142.1429],[-37.4694,145.3926]]，demand_windspeed_max=8.3, demand_humid_max=65.0, demand_windspeed_min=5.2, demand_temperature_max=11.0, current_temperature=16.25, demand_temperature=no,demand_temperature_min=23.0, demand_windspeed=no, current_windspeed=3.1, possibility=very unlikely, current_humid=59.0, demand_humid_min=51.0, demand_humi=yes, possibility_raw=0}</t>
+  </si>
+  <si>
+    <t>{response=1556379477308KKzGZ0Nk, verification_send_status=202, verification_code=399793}</t>
+  </si>
+  <si>
+    <t>response:(jsonstring)-&gt;arraylist: points of lat,long\\string-&gt;weather info.</t>
+  </si>
+  <si>
+    <t>response:(string)-&gt;pdf file name\\verification_send_status(string)\\verification_code(string)</t>
   </si>
 </sst>
 </file>
@@ -520,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,10 +572,10 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -589,10 +589,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -606,10 +606,10 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -623,7 +623,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -637,10 +637,10 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -654,10 +654,10 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -665,16 +665,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="E9" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -682,16 +682,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -699,16 +699,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
         <v>46</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -716,49 +716,49 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
         <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
         <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
